--- a/SDG Financing Simplified model (Egypt)/v7/input/paraminput/paraminput_brb.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v7/input/paraminput/paraminput_brb.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v5\input\paraminput\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A5A1B-B2D7-4067-8021-BCFC5C114F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="3135" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
     <sheet name="Continuation" sheetId="3" r:id="rId2"/>
     <sheet name="Index" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>costff</t>
   </si>
@@ -85,13 +69,22 @@
     <t>debtqlim</t>
   </si>
   <si>
-    <t>gcostsh</t>
-  </si>
-  <si>
     <t>pubgdpsh</t>
   </si>
   <si>
     <t>lowerbound</t>
+  </si>
+  <si>
+    <t>discr</t>
+  </si>
+  <si>
+    <t>stratio</t>
+  </si>
+  <si>
+    <t>hwratio</t>
+  </si>
+  <si>
+    <t>hcaccum</t>
   </si>
   <si>
     <t>hic</t>
@@ -111,39 +104,372 @@
   <si>
     <t>Continuation!A1</t>
   </si>
-  <si>
-    <t>discr</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,34 +477,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,27 +1052,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="20.775" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.2166666666667" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -464,7 +1080,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -472,7 +1088,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -480,39 +1096,39 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.98099999999999998</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>4.7E-2</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -520,15 +1136,15 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.7411442181872681</v>
+        <v>2.74114421818727</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -536,7 +1152,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -544,15 +1160,15 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.12299265249048502</v>
+        <v>0.122992652490485</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -560,31 +1176,31 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.16308734750951498</v>
+        <v>0.163087347509515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>28.521999999999998</v>
+        <v>28.522</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -592,57 +1208,76 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>4.8000000000000001E-2</v>
+      <c r="B19" s="4">
+        <f>10^(-7)</f>
+        <v>1e-7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <f>10^(-7)</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="B20" s="2">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" ht="14" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="14" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <f>4/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" ht="14" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -808,39 +1443,41 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -859,7 +1496,7 @@
         <v>costff</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
+        <f>IF(B3="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B3),FIND("=",_xlfn.FORMULATEXT(B3),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B1</v>
       </c>
       <c r="D3">
@@ -873,7 +1510,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="1">IF($B4="","","par")</f>
+        <f>IF($B4="","","par")</f>
         <v>par</v>
       </c>
       <c r="B4" t="str">
@@ -881,7 +1518,7 @@
         <v>costre</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" ca="1" si="2">IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
+        <f>IF(B4="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B4),FIND("=",_xlfn.FORMULATEXT(B4),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B2</v>
       </c>
       <c r="D4">
@@ -895,7 +1532,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B5="","","par")</f>
         <v>par</v>
       </c>
       <c r="B5" t="str">
@@ -903,7 +1540,7 @@
         <v>dep</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B5="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B5),FIND("=",_xlfn.FORMULATEXT(B5),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B3</v>
       </c>
       <c r="D5">
@@ -917,7 +1554,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B6="","","par")</f>
         <v>par</v>
       </c>
       <c r="B6" t="str">
@@ -925,7 +1562,7 @@
         <v>r</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B6="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B6),FIND("=",_xlfn.FORMULATEXT(B6),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B4</v>
       </c>
       <c r="D6">
@@ -939,7 +1576,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B7="","","par")</f>
         <v>par</v>
       </c>
       <c r="B7" t="str">
@@ -947,7 +1584,7 @@
         <v>kff0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B7="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B7),FIND("=",_xlfn.FORMULATEXT(B7),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B5</v>
       </c>
       <c r="D7">
@@ -961,7 +1598,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B8="","","par")</f>
         <v>par</v>
       </c>
       <c r="B8" t="str">
@@ -969,7 +1606,7 @@
         <v>kre0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B8="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B8),FIND("=",_xlfn.FORMULATEXT(B8),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B6</v>
       </c>
       <c r="D8">
@@ -983,7 +1620,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B9="","","par")</f>
         <v>par</v>
       </c>
       <c r="B9" t="str">
@@ -991,7 +1628,7 @@
         <v>aff</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B9="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B9),FIND("=",_xlfn.FORMULATEXT(B9),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B7</v>
       </c>
       <c r="D9">
@@ -1005,7 +1642,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B10="","","par")</f>
         <v>par</v>
       </c>
       <c r="B10" t="str">
@@ -1013,7 +1650,7 @@
         <v>taxlim</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B10="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B10),FIND("=",_xlfn.FORMULATEXT(B10),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B8</v>
       </c>
       <c r="D10">
@@ -1027,7 +1664,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B11="","","par")</f>
         <v>par</v>
       </c>
       <c r="B11" t="str">
@@ -1035,7 +1672,7 @@
         <v>tfp1</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B11="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B11),FIND("=",_xlfn.FORMULATEXT(B11),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B9</v>
       </c>
       <c r="D11">
@@ -1049,7 +1686,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B12="","","par")</f>
         <v>par</v>
       </c>
       <c r="B12" t="str">
@@ -1057,7 +1694,7 @@
         <v>phi</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B12="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B12),FIND("=",_xlfn.FORMULATEXT(B12),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B10</v>
       </c>
       <c r="D12">
@@ -1071,7 +1708,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B13="","","par")</f>
         <v>par</v>
       </c>
       <c r="B13" t="str">
@@ -1079,7 +1716,7 @@
         <v>fertsh</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B13="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B13),FIND("=",_xlfn.FORMULATEXT(B13),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B11</v>
       </c>
       <c r="D13">
@@ -1093,7 +1730,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B14="","","par")</f>
         <v>par</v>
       </c>
       <c r="B14" t="str">
@@ -1101,7 +1738,7 @@
         <v>bk</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B14="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B14),FIND("=",_xlfn.FORMULATEXT(B14),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B12</v>
       </c>
       <c r="D14">
@@ -1115,7 +1752,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B15="","","par")</f>
         <v>par</v>
       </c>
       <c r="B15" t="str">
@@ -1123,7 +1760,7 @@
         <v>bkf</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B15="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B15),FIND("=",_xlfn.FORMULATEXT(B15),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B13</v>
       </c>
       <c r="D15">
@@ -1137,7 +1774,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B16="","","par")</f>
         <v>par</v>
       </c>
       <c r="B16" t="str">
@@ -1145,7 +1782,7 @@
         <v>ben</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B16="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B16),FIND("=",_xlfn.FORMULATEXT(B16),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B14</v>
       </c>
       <c r="D16">
@@ -1159,7 +1796,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B17="","","par")</f>
         <v>par</v>
       </c>
       <c r="B17" t="str">
@@ -1167,7 +1804,7 @@
         <v>k0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B17="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B17),FIND("=",_xlfn.FORMULATEXT(B17),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B15</v>
       </c>
       <c r="D17">
@@ -1181,7 +1818,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B18="","","par")</f>
         <v>par</v>
       </c>
       <c r="B18" t="str">
@@ -1189,7 +1826,7 @@
         <v>kf0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B18="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B18),FIND("=",_xlfn.FORMULATEXT(B18),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B16</v>
       </c>
       <c r="D18">
@@ -1203,7 +1840,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f>IF($B19="","","par")</f>
         <v>par</v>
       </c>
       <c r="B19" t="str">
@@ -1211,7 +1848,7 @@
         <v>debtqlim</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f>IF(B19="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B19),FIND("=",_xlfn.FORMULATEXT(B19),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B17</v>
       </c>
       <c r="D19">
@@ -1225,23 +1862,23 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A20:A66" si="1">IF($B20="","","par")</f>
         <v>par</v>
       </c>
       <c r="B20" t="str">
         <f>IF(Hardcode!A18=0,"",Hardcode!A18)</f>
-        <v>gcostsh</v>
+        <v>pubgdpsh</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="C20:C66" si="2">IF(B20="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B20),FIND("=",_xlfn.FORMULATEXT(B20),2)-1),"=IF(",""),"A","B"))</f>
         <v>Hardcode!B18</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>IF($B20="","",0)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>IF($B20="","",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1252,18 +1889,18 @@
       </c>
       <c r="B21" t="str">
         <f>IF(Hardcode!A19=0,"",Hardcode!A19)</f>
-        <v>pubgdpsh</v>
+        <v>lowerbound</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B19</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>IF($B21="","",0)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>IF($B21="","",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1274,18 +1911,18 @@
       </c>
       <c r="B22" t="str">
         <f>IF(Hardcode!A20=0,"",Hardcode!A20)</f>
-        <v>lowerbound</v>
+        <v>discr</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B20</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D22:E85" si="3">IF($B22="","",0)</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1296,14 +1933,14 @@
       </c>
       <c r="B23" t="str">
         <f>IF(Hardcode!A21=0,"",Hardcode!A21)</f>
-        <v>discr</v>
+        <v>stratio</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>Hardcode!B21</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:E86" si="3">IF($B23="","",0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23">
@@ -1314,45 +1951,45 @@
     <row r="24" spans="1:5">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>par</v>
       </c>
       <c r="B24" t="str">
         <f>IF(Hardcode!A22=0,"",Hardcode!A22)</f>
-        <v/>
+        <v>hwratio</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Hardcode!B22</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>par</v>
       </c>
       <c r="B25" t="str">
         <f>IF(Hardcode!A23=0,"",Hardcode!A23)</f>
-        <v/>
+        <v>hcaccum</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Hardcode!B23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1365,7 +2002,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -1387,7 +2024,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -1409,7 +2046,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -1431,7 +2068,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -1453,7 +2090,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -1475,7 +2112,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -1497,7 +2134,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -1519,7 +2156,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -1541,7 +2178,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -1563,7 +2200,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -1585,7 +2222,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -1607,7 +2244,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -1629,7 +2266,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -1651,7 +2288,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -1673,7 +2310,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -1695,7 +2332,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -1717,7 +2354,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -1739,7 +2376,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -1761,7 +2398,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -1783,7 +2420,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -1805,7 +2442,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -1827,7 +2464,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -1849,7 +2486,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -1871,7 +2508,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -1893,7 +2530,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -1915,7 +2552,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -1937,7 +2574,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -1959,7 +2596,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -1981,7 +2618,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -2003,7 +2640,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -2025,7 +2662,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -2047,7 +2684,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -2069,7 +2706,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -2091,7 +2728,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -2113,7 +2750,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -2135,7 +2772,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -2157,7 +2794,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -2179,7 +2816,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -2201,7 +2838,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -2223,7 +2860,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -2245,7 +2882,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -2259,7 +2896,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A100" si="4">IF($B67="","","par")</f>
         <v/>
       </c>
       <c r="B67" t="str">
@@ -2267,7 +2904,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="C67:C100" si="5">IF(B67="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B67),FIND("=",_xlfn.FORMULATEXT(B67),2)-1),"=IF(",""),"A","B"))</f>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -2281,7 +2918,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A101" si="4">IF($B68="","","par")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B68" t="str">
@@ -2289,7 +2926,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C101" ca="1" si="5">IF(B68="","",SUBSTITUTE(SUBSTITUTE(LEFT(_xlfn.FORMULATEXT(B68),FIND("=",_xlfn.FORMULATEXT(B68),2)-1),"=IF(",""),"A","B"))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -2311,7 +2948,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -2333,7 +2970,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -2355,7 +2992,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -2377,7 +3014,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -2399,7 +3036,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -2421,7 +3058,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -2443,7 +3080,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -2465,7 +3102,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -2487,7 +3124,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -2509,7 +3146,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -2531,7 +3168,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -2553,7 +3190,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -2575,7 +3212,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -2597,7 +3234,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -2619,7 +3256,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -2641,7 +3278,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -2663,7 +3300,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -2685,15 +3322,15 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D86:E100" si="6">IF($B86="","",0)</f>
         <v/>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2707,11 +3344,11 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D87" t="str">
-        <f t="shared" ref="D87:E101" si="6">IF($B87="","",0)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E87" t="str">
@@ -2729,7 +3366,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -2751,7 +3388,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -2773,7 +3410,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -2795,7 +3432,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -2817,7 +3454,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -2839,7 +3476,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -2861,7 +3498,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -2883,7 +3520,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -2905,7 +3542,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -2927,7 +3564,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -2949,7 +3586,7 @@
         <v/>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D98" t="str">
@@ -2971,7 +3608,7 @@
         <v/>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D99" t="str">
@@ -2993,7 +3630,7 @@
         <v/>
       </c>
       <c r="C100" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="D100" t="str">
@@ -3005,29 +3642,8 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B101" t="str">
-        <f>IF(Hardcode!A99=0,"",Hardcode!A99)</f>
-        <v/>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>